--- a/plots/countries/plot data/Ireland.xlsx
+++ b/plots/countries/plot data/Ireland.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>19.2564516848985</v>
+        <v>19.7598866892056</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>10.5153353655969</v>
+        <v>10.5151248739912</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>4.07436749004144</v>
+        <v>4.0745774270694</v>
       </c>
     </row>
     <row r="6">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>5.01082394975236</v>
+        <v>5.09894477686879</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>19.5145023150082</v>
+        <v>19.8615697071469</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>10.6491507869441</v>
+        <v>10.6474182349944</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>4.15936810511865</v>
+        <v>4.16109604716362</v>
       </c>
     </row>
     <row r="15">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>4.93051686468371</v>
+        <v>5.01894456980089</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>19.6800782474114</v>
+        <v>19.9769553879653</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>9.77229543068908</v>
+        <v>9.76900497929574</v>
       </c>
     </row>
     <row r="22">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>3.83361204344609</v>
+        <v>3.83689373454504</v>
       </c>
     </row>
     <row r="24">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>5.75082703334731</v>
+        <v>5.75082704316759</v>
       </c>
     </row>
     <row r="26">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>4.72764251099099</v>
+        <v>4.81539594988911</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>20.0582602485997</v>
+        <v>20.2066658917073</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>9.74653359053628</v>
+        <v>9.74173159239732</v>
       </c>
     </row>
     <row r="31">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>4.04044599877315</v>
+        <v>4.04523520831297</v>
       </c>
     </row>
     <row r="33">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>5.72508177850478</v>
+        <v>5.72508143852887</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>2.84717939308882</v>
+        <v>2.84717178560826</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>5.00181833156473</v>
+        <v>5.08565578363625</v>
       </c>
     </row>
     <row r="37">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>20.1813263208201</v>
+        <v>20.239073529338</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>9.88766944758737</v>
+        <v>9.88041740217414</v>
       </c>
     </row>
     <row r="40">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>4.27393474536447</v>
+        <v>4.28116747780059</v>
       </c>
     </row>
     <row r="42">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>5.97368947283113</v>
+        <v>5.97368750397206</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>3.12413563696138</v>
+        <v>3.12411224548923</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>5.14587961374661</v>
+        <v>5.22857700501655</v>
       </c>
     </row>
     <row r="46">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>20.7426545307846</v>
+        <v>20.7118968027444</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>9.79973432560121</v>
+        <v>9.79055756770459</v>
       </c>
     </row>
     <row r="49">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>4.28964961896247</v>
+        <v>4.2988019381145</v>
       </c>
     </row>
     <row r="51">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>6.2637403812931</v>
+        <v>6.26373489304456</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>3.10811736515391</v>
+        <v>3.10807752320168</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>6.15143851973704</v>
+        <v>6.2286993208634</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>21.2608705997742</v>
+        <v>21.1373874210559</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>9.77464209283561</v>
+        <v>9.76486412736355</v>
       </c>
     </row>
     <row r="58">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>4.15867300024425</v>
+        <v>4.16842492007781</v>
       </c>
     </row>
     <row r="60">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>7.30557796194725</v>
+        <v>7.30556001283053</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>3.28310782831753</v>
+        <v>3.28305070414616</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>5.897980117449</v>
+        <v>5.96837589511029</v>
       </c>
     </row>
     <row r="64">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>21.4713778661997</v>
+        <v>21.2335935752003</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>9.50707303731038</v>
+        <v>9.49521269431699</v>
       </c>
     </row>
     <row r="67">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>4.49758781293903</v>
+        <v>4.50941656507052</v>
       </c>
     </row>
     <row r="69">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>7.67814223076259</v>
+        <v>7.67811561584645</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>3.71756288094308</v>
+        <v>3.71748762607242</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>5.18103638517986</v>
+        <v>5.25001194628971</v>
       </c>
     </row>
     <row r="73">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>22.0407825644323</v>
+        <v>21.6572753869564</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>10.0259307958832</v>
+        <v>10.0126114211311</v>
       </c>
     </row>
     <row r="76">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>4.47858988295461</v>
+        <v>4.49187377248673</v>
       </c>
     </row>
     <row r="78">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>9.01667178132504</v>
+        <v>9.01663898052844</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>3.51164571186979</v>
+        <v>3.51155137255674</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>5.17016200511854</v>
+        <v>5.23608789759746</v>
       </c>
     </row>
     <row r="82">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>21.7338553204692</v>
+        <v>21.2818410319054</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>9.87556253025157</v>
+        <v>9.85968112500321</v>
       </c>
     </row>
     <row r="85">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>4.64324832579568</v>
+        <v>4.65908742080809</v>
       </c>
     </row>
     <row r="87">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>9.73803008796161</v>
+        <v>9.73802586394474</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>3.63946074362926</v>
+        <v>3.63934689902744</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>5.21641144705697</v>
+        <v>5.27700807923128</v>
       </c>
     </row>
     <row r="91">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>20.8409786160354</v>
+        <v>20.3218640121818</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>10.0788147915521</v>
+        <v>10.0612247039106</v>
       </c>
     </row>
     <row r="94">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>5.42598295414247</v>
+        <v>5.443526169673</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>10.776532985791</v>
+        <v>10.7765280628887</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>4.4072200001434</v>
+        <v>4.40708270324407</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>5.86810349983113</v>
+        <v>5.91329014119123</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>1.643384608769</v>
+        <v>1.64338460876901</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>20.635040525602</v>
+        <v>20.007714185497</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>10.4080818200903</v>
+        <v>10.3899889740475</v>
       </c>
     </row>
     <row r="103">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>5.39248213257454</v>
+        <v>5.41052577726501</v>
       </c>
     </row>
     <row r="105">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>11.2992654901684</v>
+        <v>11.2992633776093</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>4.4845894264589</v>
+        <v>4.48390710889205</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>7.18789004784907</v>
+        <v>7.23510458091518</v>
       </c>
     </row>
     <row r="109">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>20.3901336246148</v>
+        <v>19.6939621785615</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>10.3230031560226</v>
+        <v>10.3042880272379</v>
       </c>
     </row>
     <row r="112">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>5.05678562347468</v>
+        <v>5.07544901966149</v>
       </c>
     </row>
     <row r="114">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>11.4924210283233</v>
+        <v>11.4924181241181</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>4.00120017935685</v>
+        <v>4.0002057736497</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>6.77268585326471</v>
+        <v>6.81182437482762</v>
       </c>
     </row>
     <row r="118">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>20.6958730140545</v>
+        <v>19.9368517252936</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>10.6644618913848</v>
+        <v>10.6456793032405</v>
       </c>
     </row>
     <row r="121">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>5.1736760419361</v>
+        <v>5.19240574232012</v>
       </c>
     </row>
     <row r="123">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>11.695058473273</v>
+        <v>11.6950576697672</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>3.42568474944538</v>
+        <v>3.42433928579793</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>7.36926676478416</v>
+        <v>7.40390013271872</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>1.93588552770095</v>
+        <v>1.93588552770094</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>20.3221562996487</v>
+        <v>19.6108984891054</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>10.7174258596346</v>
+        <v>10.6998942985695</v>
       </c>
     </row>
     <row r="130">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>5.25052903467903</v>
+        <v>5.26801004515543</v>
       </c>
     </row>
     <row r="132">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>12.4132515327989</v>
+        <v>12.4132498354127</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>3.62205735418663</v>
+        <v>3.62031338079826</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>6.05769577486001</v>
+        <v>6.08783139216967</v>
       </c>
     </row>
     <row r="136">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>20.1569520424152</v>
+        <v>19.0950113253771</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>11.2519681128231</v>
+        <v>11.2321333401666</v>
       </c>
     </row>
     <row r="139">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>5.42710404386082</v>
+        <v>5.44688110583896</v>
       </c>
     </row>
     <row r="141">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>13.1222368059971</v>
+        <v>13.1222361992034</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>3.90010640032176</v>
+        <v>3.89821453048428</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>6.21204579651843</v>
+        <v>6.2376775479546</v>
       </c>
     </row>
     <row r="145">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>20.1651787176382</v>
+        <v>18.7317963823586</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>11.0308014005902</v>
+        <v>11.0133027354436</v>
       </c>
     </row>
     <row r="148">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>5.22574461428166</v>
+        <v>5.24319022593181</v>
       </c>
     </row>
     <row r="150">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>13.7999562264432</v>
+        <v>13.7999546972098</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>3.83156973518818</v>
+        <v>3.83097334977134</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>6.16273972088497</v>
+        <v>6.17760265887976</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>1.48917568639095</v>
+        <v>1.48917568639094</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>19.5595244316663</v>
+        <v>18.6483864510784</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>10.7689137144344</v>
+        <v>10.7527068889082</v>
       </c>
     </row>
     <row r="157">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>5.32003755622709</v>
+        <v>5.33619342040377</v>
       </c>
     </row>
     <row r="159">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>14.3863376924358</v>
+        <v>14.3863361637105</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>3.89217848821184</v>
+        <v>3.89233563762657</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>5.18027801391816</v>
+        <v>5.18414434848386</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>0.962504443122069</v>
+        <v>0.962504443122068</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>19.3344717003959</v>
+        <v>18.2269175174907</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>11.6779486788261</v>
+        <v>11.6594761268208</v>
       </c>
     </row>
     <row r="166">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>5.12780013920608</v>
+        <v>5.14621433516276</v>
       </c>
     </row>
     <row r="168">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>13.6598616609696</v>
+        <v>13.6598619461001</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>3.64137311271903</v>
+        <v>3.6434045275886</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>4.48982801726199</v>
+        <v>4.47018962957688</v>
       </c>
     </row>
     <row r="172">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>19.0470974635131</v>
+        <v>17.9589024338296</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>11.0347508673445</v>
+        <v>11.0205888814287</v>
       </c>
     </row>
     <row r="175">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>4.11653565743026</v>
+        <v>4.13060127724656</v>
       </c>
     </row>
     <row r="177">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>12.440882394625</v>
+        <v>12.4408822899191</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>2.81590840558478</v>
+        <v>2.801299829531</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>4.11409930715599</v>
+        <v>4.04823622466707</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>0.603975310530187</v>
+        <v>0.603975310530186</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>19.1277672233424</v>
+        <v>18.1662098674302</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>11.3459360944201</v>
+        <v>11.3315039831219</v>
       </c>
     </row>
     <row r="184">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>4.12703338834367</v>
+        <v>4.14142049673758</v>
       </c>
     </row>
     <row r="186">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>11.5261433024347</v>
+        <v>11.526143370226</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>2.58276029782462</v>
+        <v>2.58171861801031</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>5.24821146346274</v>
+        <v>5.12337576593126</v>
       </c>
     </row>
     <row r="190">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>18.5255928285522</v>
+        <v>17.779507548736</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>9.91154761290869</v>
+        <v>9.90737366938833</v>
       </c>
     </row>
     <row r="193">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>3.72813268624063</v>
+        <v>3.73237124187538</v>
       </c>
     </row>
     <row r="195">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>11.217580804113</v>
+        <v>11.2175808552879</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>2.45874121364911</v>
+        <v>2.45864709786417</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>4.3276585629638</v>
+        <v>4.20015201762633</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>0.683730142283325</v>
+        <v>0.683730142283326</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>19.4172294726773</v>
+        <v>18.1080609265896</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>9.46945075524196</v>
+        <v>9.46236684334832</v>
       </c>
     </row>
     <row r="202">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>3.80500461410602</v>
+        <v>3.8120878615505</v>
       </c>
     </row>
     <row r="204">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>10.829806314389</v>
+        <v>10.8298063311449</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>2.65945300838412</v>
+        <v>2.65893273983861</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>3.38549365603051</v>
+        <v>3.26011110057187</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>0.589557312193521</v>
+        <v>0.58955731219352</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>20.2290790465079</v>
+        <v>18.7910091716265</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>9.27308424492381</v>
+        <v>9.2728565118235</v>
       </c>
     </row>
     <row r="211">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>3.99205983292262</v>
+        <v>3.99248579330419</v>
       </c>
     </row>
     <row r="213">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>11.0542267318335</v>
+        <v>11.0542143674505</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>2.60814944482024</v>
+        <v>2.60759686292283</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>4.16206968754979</v>
+        <v>3.9142550621628</v>
       </c>
     </row>
     <row r="217">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>19.7918952858116</v>
+        <v>18.9347668953228</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>8.29917640528454</v>
+        <v>8.31698905360441</v>
       </c>
     </row>
     <row r="220">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>4.2156313606197</v>
+        <v>4.19823348530676</v>
       </c>
     </row>
     <row r="222">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>11.3363256482565</v>
+        <v>11.3363256097256</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>3.01754487882592</v>
+        <v>3.016799210114</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>3.73789278895759</v>
+        <v>4.34205840581836</v>
       </c>
     </row>
     <row r="226">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>20.3657330432399</v>
+        <v>19.345035406924</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>8.84461455925481</v>
+        <v>8.86011321919697</v>
       </c>
     </row>
     <row r="229">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>4.24762789130927</v>
+        <v>4.23273914645116</v>
       </c>
     </row>
     <row r="231">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>11.8144979098178</v>
+        <v>11.8144973231007</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>3.20199613466584</v>
+        <v>3.20078624359849</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>4.08244002305975</v>
+        <v>3.95173846704984</v>
       </c>
     </row>
     <row r="235">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>20.9185527413914</v>
+        <v>19.9093086716424</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>9.07192344716695</v>
+        <v>9.08757912103095</v>
       </c>
     </row>
     <row r="238">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>4.32660995967861</v>
+        <v>4.31153281058906</v>
       </c>
     </row>
     <row r="240">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>12.29597607899</v>
+        <v>12.295974641957</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>3.42072790228148</v>
+        <v>3.41949015068433</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>3.19831490379281</v>
+        <v>3.01184257898948</v>
       </c>
     </row>
     <row r="244">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>21.6705205273412</v>
+        <v>20.4981382876859</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>8.54692288493322</v>
+        <v>8.56702620285315</v>
       </c>
     </row>
     <row r="247">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>4.47257818450474</v>
+        <v>4.45298572471912</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>11.8018555941354</v>
+        <v>11.7670326202703</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>12.1329728813216</v>
+        <v>12.1329707358794</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>3.43851244342579</v>
+        <v>3.43778832863577</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>5.16539637283492</v>
+        <v>5.09064336794924</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>0.978972368297456</v>
+        <v>0.978972368297457</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>22.5017297827017</v>
+        <v>20.7319016151007</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>9.19096808461872</v>
+        <v>9.22039651008866</v>
       </c>
     </row>
     <row r="256">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>4.69046346196475</v>
+        <v>4.66207395326408</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>10.5406269592953</v>
+        <v>10.4524412430916</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>12.3084819615043</v>
+        <v>12.3083235160762</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>3.1800692527057</v>
+        <v>3.17957921114226</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>4.18648995641494</v>
+        <v>3.99597891268275</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>0.933276338362063</v>
+        <v>0.934053974660132</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>21.5763718325318</v>
+        <v>20.6035791734107</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>8.92149786618292</v>
+        <v>8.9482795285524</v>
       </c>
     </row>
     <row r="265">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>4.57897239136231</v>
+        <v>4.55379588563619</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>9.33553382694889</v>
+        <v>9.20783030094466</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>12.322427454564</v>
+        <v>12.3223491822734</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>3.13650420928153</v>
+        <v>3.13655593789187</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>4.28198308659814</v>
+        <v>4.12645596510708</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>0.897944770803571</v>
+        <v>0.898918364747248</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>21.9298335241124</v>
+        <v>20.8720046639379</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>9.33591265041762</v>
+        <v>9.36853704623118</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>0.10235850580995</v>
+        <v>0.102358393385524</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>4.65086627905685</v>
+        <v>4.61964576016879</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>8.63501397809558</v>
+        <v>8.56277461573022</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>10.4014853764622</v>
+        <v>10.4010915829876</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>2.81270987170912</v>
+        <v>2.81295839135395</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>5.15244723452824</v>
+        <v>4.70663601473355</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>0.877829172719784</v>
+        <v>0.879292466829054</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>22.7540454942474</v>
+        <v>21.2806806945475</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>8.99696736757708</v>
+        <v>8.99007760839835</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>0.090917798761598</v>
+        <v>0.0909177389489261</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>4.61357128654285</v>
+        <v>4.62180354520729</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>10.1710103245456</v>
+        <v>10.0960349126418</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>11.0885847766549</v>
+        <v>11.0885508662458</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>3.21659798465215</v>
+        <v>3.23473654859087</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>4.62778679495899</v>
+        <v>4.30289734011599</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>0.823426805645317</v>
+        <v>0.824878982192998</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>22.4367558446059</v>
+        <v>20.8751055092304</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>8.12947883436113</v>
+        <v>8.08393813796262</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0895974172416245</v>
+        <v>0.0896120377471877</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>4.30205862361762</v>
+        <v>4.35618692268226</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>9.98857677935468</v>
+        <v>9.91308989555832</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>11.7512858491947</v>
+        <v>11.7591001179638</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>3.02925851712037</v>
+        <v>3.01314874329103</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>3.98333901122035</v>
+        <v>3.65525215422365</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.877873758794801</v>
+        <v>0.870256553736581</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>19.8914405874454</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>7.55839146335229</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.0892673823671694</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>4.15191747387439</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>7.77060646218612</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>11.7976318403595</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2.83066976413559</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>3.89454292507269</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.844429072626538</v>
       </c>
     </row>
   </sheetData>
